--- a/Assets/06.Table/FoxFirePass.xlsx
+++ b/Assets/06.Table/FoxFirePass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC3764-1AAD-42AE-97C6-5AAD8686AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A05E07-E055-409D-8E1B-25168670F5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxFirePass" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1124,206 @@
         <v>9026</v>
       </c>
       <c r="F31" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>155000000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>160000000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>165000000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>170000000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>175000000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>180000000</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>185000000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>190000000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>195000000</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9026</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>9026</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
     </row>
@@ -1182,15 +1382,15 @@
       </c>
       <c r="C4" s="1">
         <f>SUMIF(FoxFirePass!C:C,A4,FoxFirePass!D:D)</f>
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(FoxFirePass!C:C,A4,FoxFirePass!F:F)</f>
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="E4" s="1">
         <f>C4+D4</f>
-        <v>180000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
